--- a/Final Project/Case Study Data/case3.xlsx
+++ b/Final Project/Case Study Data/case3.xlsx
@@ -42,7 +42,7 @@
     <t>eps0xy</t>
   </si>
   <si>
-    <t>Local Stress</t>
+    <t>Global Stress</t>
   </si>
   <si>
     <t>sigma1</t>
@@ -54,7 +54,7 @@
     <t>sigma12</t>
   </si>
   <si>
-    <t>Local Strain</t>
+    <t>Global Strain</t>
   </si>
   <si>
     <t>epsilon1</t>
@@ -136,10 +136,10 @@
     <col min="1" max="1" width="21.28515625" customWidth="true"/>
     <col min="2" max="2" width="16.28515625" customWidth="true"/>
     <col min="3" max="3" width="14.7109375" customWidth="true"/>
-    <col min="4" max="4" width="16.28515625" customWidth="true"/>
+    <col min="4" max="4" width="15.5703125" customWidth="true"/>
     <col min="5" max="5" width="16.28515625" customWidth="true"/>
-    <col min="6" max="6" width="16.28515625" customWidth="true"/>
-    <col min="7" max="7" width="16.28515625" customWidth="true"/>
+    <col min="6" max="6" width="15.5703125" customWidth="true"/>
+    <col min="7" max="7" width="15.5703125" customWidth="true"/>
     <col min="8" max="8" width="15.5703125" customWidth="true"/>
     <col min="9" max="9" width="14.7109375" customWidth="true"/>
     <col min="10" max="10" width="14.7109375" customWidth="true"/>
@@ -150,7 +150,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>93.293621113422915</v>
+        <v>829.65806826558526</v>
       </c>
       <c r="C1" s="0"/>
       <c r="D1" s="0" t="s">
@@ -174,7 +174,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>-6.7063788865770819</v>
+        <v>-170.34193173441474</v>
       </c>
       <c r="C2" s="0"/>
       <c r="D2" s="0" t="s">
@@ -194,7 +194,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>0</v>
+        <v>2.4980018054066022e-14</v>
       </c>
       <c r="C3" s="0"/>
       <c r="D3" s="0" t="s">
@@ -258,31 +258,31 @@
         <v>4</v>
       </c>
       <c r="B6" s="0">
-        <v>-0.00078740199999999998</v>
+        <v>-0.02</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.00059055149999999999</v>
+        <v>-0.014999999999999999</v>
       </c>
       <c r="D6" s="0">
-        <v>-0.00039370099999999999</v>
+        <v>-0.01</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.0001968505</v>
+        <v>-0.0050000000000000001</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>0.0001968505</v>
+        <v>0.0050000000000000001</v>
       </c>
       <c r="H6" s="0">
-        <v>0.00039370099999999999</v>
+        <v>0.01</v>
       </c>
       <c r="I6" s="0">
-        <v>0.00059055149999999999</v>
+        <v>0.014999999999999999</v>
       </c>
       <c r="J6" s="0">
-        <v>0.00078740199999999998</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="7">
@@ -316,14 +316,14 @@
         <v>6</v>
       </c>
       <c r="B9" s="0">
-        <v>0.007949758229708689</v>
+        <v>0.0031298277647945406</v>
       </c>
       <c r="C9" s="0"/>
       <c r="D9" s="0" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="0">
-        <v>7.5735731775228534e-16</v>
+        <v>9.774755977538807e-35</v>
       </c>
       <c r="F9" s="0"/>
       <c r="G9" s="0"/>
@@ -336,14 +336,14 @@
         <v>7</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.0023083241951711332</v>
+        <v>-0.00090878954396307046</v>
       </c>
       <c r="C10" s="0"/>
       <c r="D10" s="0" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="0">
-        <v>-4.7245025834597076e-16</v>
+        <v>5.4228149378825262e-35</v>
       </c>
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
@@ -356,14 +356,14 @@
         <v>8</v>
       </c>
       <c r="B11" s="0">
-        <v>-1.8204323257930268e-36</v>
+        <v>-2.6105912990350568e-19</v>
       </c>
       <c r="C11" s="0"/>
       <c r="D11" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="0">
-        <v>-7.9922328604127329e-17</v>
+        <v>-6.3888867485851463e-34</v>
       </c>
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
@@ -402,31 +402,31 @@
         <v>10</v>
       </c>
       <c r="B14" s="0">
-        <v>48653.187272428651</v>
+        <v>16538.617308757606</v>
       </c>
       <c r="C14" s="0">
-        <v>48653.187272428651</v>
+        <v>16538.617308757606</v>
       </c>
       <c r="D14" s="0">
-        <v>-52333.477436610505</v>
+        <v>13680.754508811911</v>
       </c>
       <c r="E14" s="0">
-        <v>149639.85198146777</v>
+        <v>53242.010873672873</v>
       </c>
       <c r="F14" s="0">
-        <v>149639.85198146777</v>
+        <v>53242.010873672873</v>
       </c>
       <c r="G14" s="0">
-        <v>149639.85198146777</v>
+        <v>53242.010873672873</v>
       </c>
       <c r="H14" s="0">
-        <v>-52333.477436610505</v>
+        <v>13680.754508811911</v>
       </c>
       <c r="I14" s="0">
-        <v>48653.187272428651</v>
+        <v>16538.617308757606</v>
       </c>
       <c r="J14" s="0">
-        <v>48653.187272428651</v>
+        <v>16538.617308757606</v>
       </c>
     </row>
     <row r="15">
@@ -434,31 +434,31 @@
         <v>11</v>
       </c>
       <c r="B15" s="0">
-        <v>14846.778437589872</v>
+        <v>8461.3826912423829</v>
       </c>
       <c r="C15" s="0">
-        <v>14846.778437589872</v>
+        <v>8461.3826912423865</v>
       </c>
       <c r="D15" s="0">
-        <v>20343.880298828153</v>
+        <v>-26275.090891553962</v>
       </c>
       <c r="E15" s="0">
-        <v>9349.6765763516232</v>
+        <v>9352.32550906918</v>
       </c>
       <c r="F15" s="0">
-        <v>9349.6765763516232</v>
+        <v>9352.32550906918</v>
       </c>
       <c r="G15" s="0">
-        <v>9349.6765763516232</v>
+        <v>9352.32550906918</v>
       </c>
       <c r="H15" s="0">
-        <v>20343.880298828153</v>
+        <v>-26275.090891553962</v>
       </c>
       <c r="I15" s="0">
-        <v>14846.778437589872</v>
+        <v>8461.3826912423865</v>
       </c>
       <c r="J15" s="0">
-        <v>14846.778437589872</v>
+        <v>8461.3826912423829</v>
       </c>
     </row>
     <row r="16">
@@ -466,31 +466,31 @@
         <v>12</v>
       </c>
       <c r="B16" s="0">
-        <v>-10258.082424879829</v>
+        <v>983.45999105945702</v>
       </c>
       <c r="C16" s="0">
-        <v>10258.082424879829</v>
+        <v>-983.45999105946066</v>
       </c>
       <c r="D16" s="0">
-        <v>-2.8690200948728185e-14</v>
+        <v>2.9648969638288924e-14</v>
       </c>
       <c r="E16" s="0">
-        <v>1.4345100474364089e-14</v>
+        <v>2.9648969638288924e-14</v>
       </c>
       <c r="F16" s="0">
-        <v>-1.6598677309748853e-30</v>
+        <v>2.9648969638288924e-14</v>
       </c>
       <c r="G16" s="0">
-        <v>-1.4345100474364096e-14</v>
+        <v>2.9648969638288924e-14</v>
       </c>
       <c r="H16" s="0">
-        <v>2.8690200948728185e-14</v>
+        <v>2.9648969638288924e-14</v>
       </c>
       <c r="I16" s="0">
-        <v>10258.082424879829</v>
+        <v>-983.45999105946066</v>
       </c>
       <c r="J16" s="0">
-        <v>-10258.082424879829</v>
+        <v>983.45999105945702</v>
       </c>
     </row>
     <row r="17">
@@ -524,31 +524,31 @@
         <v>14</v>
       </c>
       <c r="B19" s="0">
-        <v>0.0022173810762763798</v>
+        <v>0.0060139918238021409</v>
       </c>
       <c r="C19" s="0">
-        <v>0.0022173810762763798</v>
+        <v>0.0060139918238021391</v>
       </c>
       <c r="D19" s="0">
-        <v>-0.0029116601361635335</v>
+        <v>0.0095014918238021401</v>
       </c>
       <c r="E19" s="0">
-        <v>0.0073464222887162887</v>
+        <v>0.0025264918238021407</v>
       </c>
       <c r="F19" s="0">
-        <v>0.0073464222887162887</v>
+        <v>0.0025264918238021407</v>
       </c>
       <c r="G19" s="0">
-        <v>0.0073464222887162887</v>
+        <v>0.0025264918238021407</v>
       </c>
       <c r="H19" s="0">
-        <v>-0.0029116601361635335</v>
+        <v>0.0095014918238021401</v>
       </c>
       <c r="I19" s="0">
-        <v>0.0022173810762763798</v>
+        <v>0.0060139918238021391</v>
       </c>
       <c r="J19" s="0">
-        <v>0.0022173810762763798</v>
+        <v>0.0060139918238021409</v>
       </c>
     </row>
     <row r="20">
@@ -556,31 +556,31 @@
         <v>15</v>
       </c>
       <c r="B20" s="0">
-        <v>0.009192381076276377</v>
+        <v>0.0019753745150445281</v>
       </c>
       <c r="C20" s="0">
-        <v>0.009192381076276377</v>
+        <v>0.0019753745150445281</v>
       </c>
       <c r="D20" s="0">
-        <v>0.014321422288716289</v>
+        <v>-0.0015121254849554708</v>
       </c>
       <c r="E20" s="0">
-        <v>0.0040633398638364668</v>
+        <v>0.0054628745150445291</v>
       </c>
       <c r="F20" s="0">
-        <v>0.0040633398638364668</v>
+        <v>0.0054628745150445291</v>
       </c>
       <c r="G20" s="0">
-        <v>0.0040633398638364668</v>
+        <v>0.0054628745150445291</v>
       </c>
       <c r="H20" s="0">
-        <v>0.014321422288716289</v>
+        <v>-0.0015121254849554708</v>
       </c>
       <c r="I20" s="0">
-        <v>0.009192381076276377</v>
+        <v>0.0019753745150445281</v>
       </c>
       <c r="J20" s="0">
-        <v>0.009192381076276377</v>
+        <v>0.0019753745150445281</v>
       </c>
     </row>
     <row r="21">
@@ -588,31 +588,31 @@
         <v>16</v>
       </c>
       <c r="B21" s="0">
-        <v>-0.010258082424879834</v>
+        <v>-0.0069749999999999986</v>
       </c>
       <c r="C21" s="0">
-        <v>0.010258082424879834</v>
+        <v>0.0069749999999999977</v>
       </c>
       <c r="D21" s="0">
-        <v>-2.8690200948728178e-20</v>
+        <v>2.9648969638288912e-20</v>
       </c>
       <c r="E21" s="0">
-        <v>1.4345100474364086e-20</v>
+        <v>2.9648969638288912e-20</v>
       </c>
       <c r="F21" s="0">
-        <v>-1.6598677309748849e-36</v>
+        <v>2.9648969638288912e-20</v>
       </c>
       <c r="G21" s="0">
-        <v>-1.4345100474364092e-20</v>
+        <v>2.9648969638288912e-20</v>
       </c>
       <c r="H21" s="0">
-        <v>2.8690200948728178e-20</v>
+        <v>2.9648969638288912e-20</v>
       </c>
       <c r="I21" s="0">
-        <v>0.010258082424879834</v>
+        <v>0.0069749999999999977</v>
       </c>
       <c r="J21" s="0">
-        <v>-0.010258082424879834</v>
+        <v>-0.0069749999999999986</v>
       </c>
     </row>
   </sheetData>

--- a/Final Project/Case Study Data/case3.xlsx
+++ b/Final Project/Case Study Data/case3.xlsx
@@ -13,7 +13,79 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+  <si>
+    <t>NxTot</t>
+  </si>
+  <si>
+    <t>NyTot</t>
+  </si>
+  <si>
+    <t>NxyTot</t>
+  </si>
+  <si>
+    <t>Ply</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>Midplane Deformation</t>
+  </si>
+  <si>
+    <t>eps0x</t>
+  </si>
+  <si>
+    <t>eps0y</t>
+  </si>
+  <si>
+    <t>eps0xy</t>
+  </si>
+  <si>
+    <t>Global Stress</t>
+  </si>
+  <si>
+    <t>sigma1</t>
+  </si>
+  <si>
+    <t>sigma2</t>
+  </si>
+  <si>
+    <t>sigma12</t>
+  </si>
+  <si>
+    <t>Global Strain</t>
+  </si>
+  <si>
+    <t>epsilon1</t>
+  </si>
+  <si>
+    <t>epsilon2</t>
+  </si>
+  <si>
+    <t>gamma12</t>
+  </si>
+  <si>
+    <t>MxTot</t>
+  </si>
+  <si>
+    <t>MyTot</t>
+  </si>
+  <si>
+    <t>MxyTot</t>
+  </si>
+  <si>
+    <t>kx</t>
+  </si>
+  <si>
+    <t>ky</t>
+  </si>
+  <si>
+    <t>kxy</t>
+  </si>
+  <si>
+    <t>DeltaT</t>
+  </si>
   <si>
     <t>NxTot</t>
   </si>
@@ -105,7 +177,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -114,13 +186,15 @@
       <diagonal/>
     </border>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -147,21 +221,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B1" s="0">
         <v>829.65806826558526</v>
       </c>
       <c r="C1" s="0"/>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="E1" s="0">
         <v>0</v>
       </c>
       <c r="F1" s="0"/>
       <c r="G1" s="0" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="H1" s="0">
         <v>-450</v>
@@ -171,14 +245,14 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B2" s="0">
         <v>-170.34193173441474</v>
       </c>
       <c r="C2" s="0"/>
       <c r="D2" s="0" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -191,14 +265,14 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B3" s="0">
         <v>2.4980018054066022e-14</v>
       </c>
       <c r="C3" s="0"/>
       <c r="D3" s="0" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="E3" s="0">
         <v>0</v>
@@ -223,7 +297,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B5" s="0">
         <v>1</v>
@@ -255,7 +329,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B6" s="0">
         <v>-0.02</v>
@@ -299,7 +373,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0"/>
@@ -313,14 +387,14 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B9" s="0">
         <v>0.0031298277647945406</v>
       </c>
       <c r="C9" s="0"/>
       <c r="D9" s="0" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E9" s="0">
         <v>9.774755977538807e-35</v>
@@ -333,14 +407,14 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B10" s="0">
         <v>-0.00090878954396307046</v>
       </c>
       <c r="C10" s="0"/>
       <c r="D10" s="0" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="E10" s="0">
         <v>5.4228149378825262e-35</v>
@@ -353,14 +427,14 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B11" s="0">
         <v>-2.6105912990350568e-19</v>
       </c>
       <c r="C11" s="0"/>
       <c r="D11" s="0" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="E11" s="0">
         <v>-6.3888867485851463e-34</v>
@@ -385,7 +459,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -399,7 +473,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B14" s="0">
         <v>16538.617308757606</v>
@@ -431,7 +505,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B15" s="0">
         <v>8461.3826912423829</v>
@@ -463,7 +537,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B16" s="0">
         <v>983.45999105945702</v>
@@ -507,7 +581,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -521,7 +595,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0">
         <v>0.0060139918238021409</v>
@@ -553,7 +627,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0">
         <v>0.0019753745150445281</v>
@@ -585,7 +659,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0">
         <v>-0.0069749999999999986</v>
